--- a/data/trans_orig/Q5418_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5418_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3823C33D-3BCB-4773-99CB-6D05D145CE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84DD5A7D-C24C-4C48-81BF-5D04451B4AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{20D8B244-115E-4FF2-9DBA-6ED790A76345}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FAD17119-5F1B-46C8-BF8D-4E14C00B4E26}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -98,82 +98,82 @@
     <t>7,79%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
   </si>
   <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
   </si>
   <si>
     <t>7,7%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
   </si>
   <si>
     <t>9,09%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
   </si>
   <si>
     <t>84,51%</t>
   </si>
   <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
   </si>
   <si>
     <t>80,71%</t>
   </si>
   <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>82,24%</t>
   </si>
   <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -591,7 +591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7836DE7B-B156-4B7C-BC01-C419F911226B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B0C970-E823-40BE-AA08-04783F072DFB}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5418_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5418_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84DD5A7D-C24C-4C48-81BF-5D04451B4AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA2CCF70-4723-4C16-86E6-EDF57EC18C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FAD17119-5F1B-46C8-BF8D-4E14C00B4E26}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{567E50C6-D40E-4BD2-BDA2-5853F7CA1888}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -591,7 +591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B0C970-E823-40BE-AA08-04783F072DFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E935DE8B-EB3C-4015-B238-0EBF8C60E8AD}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5418_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5418_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA2CCF70-4723-4C16-86E6-EDF57EC18C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FC49009-C561-48D5-9BA7-1DB597E1AB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{567E50C6-D40E-4BD2-BDA2-5853F7CA1888}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3D41C2A8-D38D-4C40-BA61-4B4D7C98B360}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -98,82 +98,82 @@
     <t>7,79%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
   </si>
   <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
   </si>
   <si>
     <t>7,7%</t>
   </si>
   <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
   </si>
   <si>
     <t>9,09%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
   </si>
   <si>
     <t>84,51%</t>
   </si>
   <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
   </si>
   <si>
     <t>80,71%</t>
   </si>
   <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
   </si>
   <si>
     <t>82,24%</t>
   </si>
   <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>100%</t>
@@ -591,7 +591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E935DE8B-EB3C-4015-B238-0EBF8C60E8AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09885D9-B679-40BE-8605-70777A7E761D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5418_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5418_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FC49009-C561-48D5-9BA7-1DB597E1AB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1E12500-4998-446D-9EB6-1D1B5AA22FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3D41C2A8-D38D-4C40-BA61-4B4D7C98B360}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DED97C3E-A64B-47EF-AD47-3BA176BB7977}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="103">
   <si>
     <t>Población según si es capaz de lavarse la ropa en 2023 (Tasa respuesta: 31,2%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No puede</t>
@@ -80,103 +80,268 @@
     <t>Sin ayuda</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
   </si>
   <si>
     <t>9,92%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -591,8 +756,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09885D9-B679-40BE-8605-70777A7E761D}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA46914-DDC5-4134-82F9-24CCC9735116}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1619,10 +1784,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="D24" s="7">
-        <v>53979</v>
+        <v>13351</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -1634,10 +1799,10 @@
         <v>21</v>
       </c>
       <c r="H24" s="7">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="I24" s="7">
-        <v>95050</v>
+        <v>6010</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>22</v>
@@ -1649,10 +1814,10 @@
         <v>24</v>
       </c>
       <c r="M24" s="7">
-        <v>267</v>
+        <v>35</v>
       </c>
       <c r="N24" s="7">
-        <v>149030</v>
+        <v>19361</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>25</v>
@@ -1670,10 +1835,10 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="D25" s="7">
-        <v>53370</v>
+        <v>13714</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>28</v>
@@ -1685,10 +1850,10 @@
         <v>30</v>
       </c>
       <c r="H25" s="7">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="I25" s="7">
-        <v>102787</v>
+        <v>22262</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>31</v>
@@ -1700,10 +1865,10 @@
         <v>33</v>
       </c>
       <c r="M25" s="7">
-        <v>271</v>
+        <v>69</v>
       </c>
       <c r="N25" s="7">
-        <v>156157</v>
+        <v>35976</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>34</v>
@@ -1721,10 +1886,10 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>852</v>
+        <v>522</v>
       </c>
       <c r="D26" s="7">
-        <v>585877</v>
+        <v>339883</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>37</v>
@@ -1736,10 +1901,10 @@
         <v>39</v>
       </c>
       <c r="H26" s="7">
-        <v>1338</v>
+        <v>768</v>
       </c>
       <c r="I26" s="7">
-        <v>827711</v>
+        <v>579686</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>40</v>
@@ -1751,10 +1916,10 @@
         <v>42</v>
       </c>
       <c r="M26" s="7">
-        <v>2190</v>
+        <v>1290</v>
       </c>
       <c r="N26" s="7">
-        <v>1413588</v>
+        <v>919569</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>43</v>
@@ -1772,10 +1937,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1022</v>
+        <v>568</v>
       </c>
       <c r="D27" s="7">
-        <v>693226</v>
+        <v>366948</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -1787,10 +1952,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>1706</v>
+        <v>826</v>
       </c>
       <c r="I27" s="7">
-        <v>1025548</v>
+        <v>607958</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -1802,10 +1967,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>2728</v>
+        <v>1394</v>
       </c>
       <c r="N27" s="7">
-        <v>1718774</v>
+        <v>974906</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -1819,55 +1984,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D28" s="7">
-        <v>53979</v>
+        <v>37861</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="I28" s="7">
-        <v>95050</v>
+        <v>79385</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M28" s="7">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="N28" s="7">
-        <v>149030</v>
+        <v>117247</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,49 +2041,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D29" s="7">
-        <v>53370</v>
+        <v>35967</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="H29" s="7">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="I29" s="7">
-        <v>102787</v>
+        <v>69195</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="M29" s="7">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="N29" s="7">
-        <v>156157</v>
+        <v>105162</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,49 +2092,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>852</v>
+        <v>330</v>
       </c>
       <c r="D30" s="7">
-        <v>585877</v>
+        <v>206119</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="H30" s="7">
-        <v>1338</v>
+        <v>570</v>
       </c>
       <c r="I30" s="7">
-        <v>827711</v>
+        <v>276659</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="M30" s="7">
-        <v>2190</v>
+        <v>900</v>
       </c>
       <c r="N30" s="7">
-        <v>1413588</v>
+        <v>482779</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,63 +2143,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>454</v>
+      </c>
+      <c r="D31" s="7">
+        <v>279948</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>880</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425239</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1334</v>
+      </c>
+      <c r="N31" s="7">
+        <v>705187</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>90</v>
+      </c>
+      <c r="D32" s="7">
+        <v>51212</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="7">
+        <v>177</v>
+      </c>
+      <c r="I32" s="7">
+        <v>85395</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M32" s="7">
+        <v>267</v>
+      </c>
+      <c r="N32" s="7">
+        <v>136607</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>80</v>
+      </c>
+      <c r="D33" s="7">
+        <v>49681</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="7">
+        <v>191</v>
+      </c>
+      <c r="I33" s="7">
+        <v>91457</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M33" s="7">
+        <v>271</v>
+      </c>
+      <c r="N33" s="7">
+        <v>141138</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>852</v>
+      </c>
+      <c r="D34" s="7">
+        <v>546003</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1338</v>
+      </c>
+      <c r="I34" s="7">
+        <v>856345</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2190</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1402348</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>1022</v>
       </c>
-      <c r="D31" s="7">
-        <v>693226</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>646896</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>1706</v>
       </c>
-      <c r="I31" s="7">
-        <v>1025548</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>1033197</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>2728</v>
       </c>
-      <c r="N31" s="7">
-        <v>1718774</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="N35" s="7">
+        <v>1680093</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
